--- a/outputs-r202/test-f__Erysipelatoclostridiaceae.xlsx
+++ b/outputs-r202/test-f__Erysipelatoclostridiaceae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>Row</t>
   </si>
@@ -124,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -134,14 +134,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -173,750 +177,750 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0083427810442907417</v>
+        <v>0.012849213265556695</v>
       </c>
       <c r="C2">
-        <v>0.0013002010395213081</v>
+        <v>0.0013217011382023289</v>
       </c>
       <c r="D2">
-        <v>0.015099156999103063</v>
+        <v>0.01186451040178417</v>
       </c>
       <c r="E2">
-        <v>2.2222436689215144e-14</v>
+        <v>2.2235708788461696e-14</v>
       </c>
       <c r="F2">
-        <v>2.2222436689215144e-14</v>
+        <v>2.2235708788461696e-14</v>
       </c>
       <c r="G2">
-        <v>2.2222436689215144e-14</v>
+        <v>2.2235708788461696e-14</v>
       </c>
       <c r="H2">
-        <v>2.2222436689215144e-14</v>
+        <v>2.2235708788461696e-14</v>
       </c>
       <c r="I2">
-        <v>2.2222436689215144e-14</v>
+        <v>2.2235708788461696e-14</v>
       </c>
       <c r="J2">
-        <v>2.2222436689215144e-14</v>
+        <v>2.2235708788461696e-14</v>
       </c>
       <c r="K2">
-        <v>0.024555838601638583</v>
+        <v>0.025591858311007153</v>
       </c>
       <c r="L2">
-        <v>2.2222436689215144e-14</v>
+        <v>2.2235708788461696e-14</v>
       </c>
       <c r="M2">
-        <v>0.93193269752777153</v>
+        <v>0.90628944469881467</v>
       </c>
       <c r="N2">
-        <v>0.018769324787496953</v>
+        <v>0.042083272184457121</v>
       </c>
       <c r="O2">
-        <v>2.2222436689215144e-14</v>
+        <v>2.2235708788461696e-14</v>
       </c>
       <c r="P2">
         <v>12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.017988735695576887</v>
+        <v>0.02254024759133642</v>
       </c>
       <c r="C3">
-        <v>0.0013210147099684238</v>
+        <v>0.0012846234616364454</v>
       </c>
       <c r="D3">
-        <v>0.0084594385432732039</v>
+        <v>0.013415259870381979</v>
       </c>
       <c r="E3">
-        <v>2.2225873445260691e-14</v>
+        <v>2.2248041376876851e-14</v>
       </c>
       <c r="F3">
-        <v>2.2225873445260691e-14</v>
+        <v>2.2248041376876851e-14</v>
       </c>
       <c r="G3">
-        <v>2.2225873445260691e-14</v>
+        <v>2.2248041376876851e-14</v>
       </c>
       <c r="H3">
-        <v>2.2225873445260691e-14</v>
+        <v>2.2248041376876851e-14</v>
       </c>
       <c r="I3">
-        <v>2.2225873445260691e-14</v>
+        <v>2.2248041376876851e-14</v>
       </c>
       <c r="J3">
-        <v>2.2225873445260691e-14</v>
+        <v>2.2248041376876851e-14</v>
       </c>
       <c r="K3">
-        <v>0.028492071994000761</v>
+        <v>0.029564216413321263</v>
       </c>
       <c r="L3">
-        <v>2.2225873445260691e-14</v>
+        <v>2.2248041376876851e-14</v>
       </c>
       <c r="M3">
-        <v>0.9259783240559476</v>
+        <v>0.89159632686691959</v>
       </c>
       <c r="N3">
-        <v>0.017760415001055213</v>
+        <v>0.041599325796226223</v>
       </c>
       <c r="O3">
-        <v>2.2225873445260691e-14</v>
+        <v>2.2248041376876851e-14</v>
       </c>
       <c r="P3">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0050636165713127713</v>
+        <v>0.011693533005436206</v>
       </c>
       <c r="C4">
-        <v>0.0014454658507475719</v>
+        <v>0.001286247143414034</v>
       </c>
       <c r="D4">
-        <v>0.0069071621663309079</v>
+        <v>0.011115658699906189</v>
       </c>
       <c r="E4">
-        <v>2.2213061005331906e-14</v>
+        <v>2.223067214352468e-14</v>
       </c>
       <c r="F4">
-        <v>2.2213061005331906e-14</v>
+        <v>2.223067214352468e-14</v>
       </c>
       <c r="G4">
-        <v>2.2213061005331906e-14</v>
+        <v>2.223067214352468e-14</v>
       </c>
       <c r="H4">
-        <v>2.2213061005331906e-14</v>
+        <v>2.223067214352468e-14</v>
       </c>
       <c r="I4">
-        <v>2.2213061005331906e-14</v>
+        <v>2.223067214352468e-14</v>
       </c>
       <c r="J4">
-        <v>2.2213061005331906e-14</v>
+        <v>2.223067214352468e-14</v>
       </c>
       <c r="K4">
-        <v>0.019885353180586179</v>
+        <v>0.024503817492674298</v>
       </c>
       <c r="L4">
-        <v>2.2213061005331906e-14</v>
+        <v>2.223067214352468e-14</v>
       </c>
       <c r="M4">
-        <v>0.94867591779703597</v>
+        <v>0.9132795446963462</v>
       </c>
       <c r="N4">
-        <v>0.018022484433808831</v>
+        <v>0.03812119896204532</v>
       </c>
       <c r="O4">
-        <v>2.2213061005331906e-14</v>
+        <v>2.223067214352468e-14</v>
       </c>
       <c r="P4">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9.481201660711653e-06</v>
+        <v>1.1570918927354329e-05</v>
       </c>
       <c r="C5">
-        <v>0.00018045800087037098</v>
+        <v>0.0014147708049418927</v>
       </c>
       <c r="D5">
-        <v>0.69137930124125202</v>
+        <v>0.69316935659972723</v>
       </c>
       <c r="E5">
-        <v>2.5205236650774354e-14</v>
+        <v>4.8756334762478584e-14</v>
       </c>
       <c r="F5">
-        <v>2.5205236650774354e-14</v>
+        <v>4.8756334762478584e-14</v>
       </c>
       <c r="G5">
-        <v>2.5205236650774373e-14</v>
+        <v>4.8756334762478616e-14</v>
       </c>
       <c r="H5">
-        <v>2.5205236650774373e-14</v>
+        <v>4.8756334762478616e-14</v>
       </c>
       <c r="I5">
-        <v>2.5205236650774373e-14</v>
+        <v>4.8756334762478616e-14</v>
       </c>
       <c r="J5">
-        <v>2.5205236650774373e-14</v>
+        <v>4.8756334762478616e-14</v>
       </c>
       <c r="K5">
-        <v>0.30837221585172514</v>
+        <v>0.30540239921457774</v>
       </c>
       <c r="L5">
-        <v>2.520523665077436e-14</v>
+        <v>4.8756334762478584e-14</v>
       </c>
       <c r="M5">
-        <v>2.520523665077436e-14</v>
+        <v>4.8756334762478584e-14</v>
       </c>
       <c r="N5">
-        <v>5.8543704264863819e-05</v>
+        <v>1.9024613871922678e-06</v>
       </c>
       <c r="O5">
-        <v>2.520523665077436e-14</v>
+        <v>4.8756334762478584e-14</v>
       </c>
       <c r="P5">
         <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.00092579974920815389</v>
+        <v>0.00073397840819319695</v>
       </c>
       <c r="C6">
-        <v>8.3689050376361006e-05</v>
+        <v>0.000140769932016836</v>
       </c>
       <c r="D6">
-        <v>0.85778300041796585</v>
+        <v>0.86238356759056656</v>
       </c>
       <c r="E6">
-        <v>2.2201740563063038e-14</v>
+        <v>2.2399177525471837e-14</v>
       </c>
       <c r="F6">
-        <v>2.2201740563063038e-14</v>
+        <v>2.2399177525471837e-14</v>
       </c>
       <c r="G6">
-        <v>2.2201740563063038e-14</v>
+        <v>2.2399177525471837e-14</v>
       </c>
       <c r="H6">
-        <v>2.2201740563063038e-14</v>
+        <v>2.2399177525471837e-14</v>
       </c>
       <c r="I6">
-        <v>2.2201740563063038e-14</v>
+        <v>2.2399177525471837e-14</v>
       </c>
       <c r="J6">
-        <v>2.2201740563063038e-14</v>
+        <v>2.2399177525471837e-14</v>
       </c>
       <c r="K6">
-        <v>0.14120751023848313</v>
+        <v>0.13674168341491272</v>
       </c>
       <c r="L6">
-        <v>2.2201740563063038e-14</v>
+        <v>2.2399177525471827e-14</v>
       </c>
       <c r="M6">
-        <v>2.2201740563063038e-14</v>
+        <v>2.2399177525471827e-14</v>
       </c>
       <c r="N6">
-        <v>5.4376662909459297e-10</v>
+        <v>6.5410882051559217e-10</v>
       </c>
       <c r="O6">
-        <v>2.2201740563063038e-14</v>
+        <v>2.2399177525471827e-14</v>
       </c>
       <c r="P6">
         <v>3</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8.61310425474328e-06</v>
+        <v>8.8058077140955414e-06</v>
       </c>
       <c r="C7">
-        <v>0.0003097089462111098</v>
+        <v>0.00049223445766814831</v>
       </c>
       <c r="D7">
-        <v>0.69614046923087902</v>
+        <v>0.69974530973009508</v>
       </c>
       <c r="E7">
-        <v>3.0012693438356737e-14</v>
+        <v>3.4647650418735178e-14</v>
       </c>
       <c r="F7">
-        <v>3.0012693438356737e-14</v>
+        <v>3.4647650418735178e-14</v>
       </c>
       <c r="G7">
-        <v>3.0012693438356706e-14</v>
+        <v>3.4647650418735165e-14</v>
       </c>
       <c r="H7">
-        <v>3.0012693438356706e-14</v>
+        <v>3.4647650418735153e-14</v>
       </c>
       <c r="I7">
-        <v>3.0012693438356706e-14</v>
+        <v>3.4647650418735153e-14</v>
       </c>
       <c r="J7">
-        <v>3.0012693438356706e-14</v>
+        <v>3.4647650418735165e-14</v>
       </c>
       <c r="K7">
-        <v>0.30352432864644391</v>
+        <v>0.299749668201298</v>
       </c>
       <c r="L7">
-        <v>3.0012693438356725e-14</v>
+        <v>3.4647650418735216e-14</v>
       </c>
       <c r="M7">
-        <v>3.0012693438356725e-14</v>
+        <v>3.4647650418735216e-14</v>
       </c>
       <c r="N7">
-        <v>1.6880071941380503e-05</v>
+        <v>3.9818029128887562e-06</v>
       </c>
       <c r="O7">
-        <v>3.0012693438356725e-14</v>
+        <v>3.4647650418735216e-14</v>
       </c>
       <c r="P7">
         <v>3</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>9.858473734651409e-05</v>
+        <v>0.00045934214126811516</v>
       </c>
       <c r="C8">
-        <v>0.0013692667995539299</v>
+        <v>0.000903708479577107</v>
       </c>
       <c r="D8">
-        <v>0.025375077091346933</v>
+        <v>0.021141278399164885</v>
       </c>
       <c r="E8">
-        <v>2.2211568615049834e-14</v>
+        <v>2.2210738689043988e-14</v>
       </c>
       <c r="F8">
-        <v>2.2211568615049834e-14</v>
+        <v>2.2210738689043988e-14</v>
       </c>
       <c r="G8">
-        <v>2.2211568615049834e-14</v>
+        <v>2.2210738689043988e-14</v>
       </c>
       <c r="H8">
-        <v>2.2211568615049834e-14</v>
+        <v>2.2210738689043988e-14</v>
       </c>
       <c r="I8">
-        <v>0.94474350840757992</v>
+        <v>0.94288272880179036</v>
       </c>
       <c r="J8">
-        <v>2.2211568615049834e-14</v>
+        <v>2.2210738689043988e-14</v>
       </c>
       <c r="K8">
-        <v>0.028412266005752394</v>
+        <v>0.034610300834338019</v>
       </c>
       <c r="L8">
-        <v>2.2211568615049834e-14</v>
+        <v>2.2210738689043988e-14</v>
       </c>
       <c r="M8">
-        <v>2.2211568615049834e-14</v>
+        <v>2.2210738689043988e-14</v>
       </c>
       <c r="N8">
-        <v>1.2969582425559752e-06</v>
+        <v>2.6413436837756969e-06</v>
       </c>
       <c r="O8">
-        <v>2.2211568615049834e-14</v>
+        <v>2.2210738689043988e-14</v>
       </c>
       <c r="P8">
         <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.005925184493276078</v>
+        <v>0.0084130542049869559</v>
       </c>
       <c r="C9">
-        <v>0.0018508101729038057</v>
+        <v>0.0013421465775536432</v>
       </c>
       <c r="D9">
-        <v>0.0067012661181758736</v>
+        <v>0.009393044919410445</v>
       </c>
       <c r="E9">
-        <v>2.2220434546790596e-14</v>
+        <v>2.2224517294534986e-14</v>
       </c>
       <c r="F9">
-        <v>2.2220434546790596e-14</v>
+        <v>2.2224517294534986e-14</v>
       </c>
       <c r="G9">
-        <v>2.2220434546790596e-14</v>
+        <v>2.2224517294534986e-14</v>
       </c>
       <c r="H9">
-        <v>2.2220434546790596e-14</v>
+        <v>2.2224517294534986e-14</v>
       </c>
       <c r="I9">
-        <v>2.2220434546790596e-14</v>
+        <v>2.2224517294534986e-14</v>
       </c>
       <c r="J9">
-        <v>2.2220434546790596e-14</v>
+        <v>2.2224517294534986e-14</v>
       </c>
       <c r="K9">
-        <v>0.019315615516420349</v>
+        <v>0.022214173629462351</v>
       </c>
       <c r="L9">
-        <v>2.2220434546790596e-14</v>
+        <v>2.2224517294534986e-14</v>
       </c>
       <c r="M9">
-        <v>0.92292490858730047</v>
+        <v>0.92319926203941172</v>
       </c>
       <c r="N9">
-        <v>0.043282215111745688</v>
+        <v>0.035438318628997025</v>
       </c>
       <c r="O9">
-        <v>2.2220434546790596e-14</v>
+        <v>2.2224517294534986e-14</v>
       </c>
       <c r="P9">
         <v>12</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.0077366110399795266</v>
+        <v>0.010832514012591051</v>
       </c>
       <c r="C10">
-        <v>0.001454968893381339</v>
+        <v>0.001279330542448009</v>
       </c>
       <c r="D10">
-        <v>0.0095467278583782084</v>
+        <v>0.01127061605298136</v>
       </c>
       <c r="E10">
-        <v>2.221972706457033e-14</v>
+        <v>2.2228012756604962e-14</v>
       </c>
       <c r="F10">
-        <v>2.221972706457033e-14</v>
+        <v>2.2228012756604962e-14</v>
       </c>
       <c r="G10">
-        <v>2.221972706457033e-14</v>
+        <v>2.2228012756604962e-14</v>
       </c>
       <c r="H10">
-        <v>2.221972706457033e-14</v>
+        <v>2.2228012756604962e-14</v>
       </c>
       <c r="I10">
-        <v>2.221972706457033e-14</v>
+        <v>2.2228012756604962e-14</v>
       </c>
       <c r="J10">
-        <v>2.221972706457033e-14</v>
+        <v>2.2228012756604962e-14</v>
       </c>
       <c r="K10">
-        <v>0.023136179867051028</v>
+        <v>0.024594324639095912</v>
       </c>
       <c r="L10">
-        <v>2.221972706457033e-14</v>
+        <v>2.2228012756604962e-14</v>
       </c>
       <c r="M10">
-        <v>0.93615905269198274</v>
+        <v>0.91927690917640281</v>
       </c>
       <c r="N10">
-        <v>0.021966459649049263</v>
+        <v>0.032746305576302988</v>
       </c>
       <c r="O10">
-        <v>2.221972706457033e-14</v>
+        <v>2.2228012756604962e-14</v>
       </c>
       <c r="P10">
         <v>12</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.015633447441107402</v>
+        <v>0.017426661238010482</v>
       </c>
       <c r="C11">
-        <v>0.0014285563630893128</v>
+        <v>0.0013047276370832886</v>
       </c>
       <c r="D11">
-        <v>0.01305130143609938</v>
+        <v>0.012363288408188032</v>
       </c>
       <c r="E11">
-        <v>2.2242493349059245e-14</v>
+        <v>2.2238405883561475e-14</v>
       </c>
       <c r="F11">
-        <v>2.2242493349059245e-14</v>
+        <v>2.2238405883561475e-14</v>
       </c>
       <c r="G11">
-        <v>2.2242493349059245e-14</v>
+        <v>2.2238405883561475e-14</v>
       </c>
       <c r="H11">
-        <v>2.2242493349059245e-14</v>
+        <v>2.2238405883561475e-14</v>
       </c>
       <c r="I11">
-        <v>2.2242493349059245e-14</v>
+        <v>2.2238405883561475e-14</v>
       </c>
       <c r="J11">
-        <v>2.2242493349059245e-14</v>
+        <v>2.2238405883561475e-14</v>
       </c>
       <c r="K11">
-        <v>0.027545244412760485</v>
+        <v>0.02703618152921387</v>
       </c>
       <c r="L11">
-        <v>2.2242493349059245e-14</v>
+        <v>2.2238405883561475e-14</v>
       </c>
       <c r="M11">
-        <v>0.89888244620564062</v>
+        <v>0.90295557701010409</v>
       </c>
       <c r="N11">
-        <v>0.043459004141124864</v>
+        <v>0.038913564177222297</v>
       </c>
       <c r="O11">
-        <v>2.2242493349059245e-14</v>
+        <v>2.2238405883561475e-14</v>
       </c>
       <c r="P11">
         <v>12</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.006813340996831104</v>
+        <v>0.005995858289846721</v>
       </c>
       <c r="C12">
-        <v>0.00032026187729832498</v>
+        <v>0.00025881816842323653</v>
       </c>
       <c r="D12">
-        <v>0.020855992224856301</v>
+        <v>0.023704878522551875</v>
       </c>
       <c r="E12">
-        <v>2.2216909630864997e-14</v>
+        <v>2.2217749903986875e-14</v>
       </c>
       <c r="F12">
-        <v>2.2216909630864997e-14</v>
+        <v>2.2217749903986875e-14</v>
       </c>
       <c r="G12">
-        <v>2.2216909630864997e-14</v>
+        <v>2.2217749903986875e-14</v>
       </c>
       <c r="H12">
-        <v>2.2216909630864997e-14</v>
+        <v>2.2217749903986875e-14</v>
       </c>
       <c r="I12">
-        <v>2.2216909630864997e-14</v>
+        <v>2.2217749903986875e-14</v>
       </c>
       <c r="J12">
-        <v>0.92947892445060321</v>
+        <v>0.9268959109375553</v>
       </c>
       <c r="K12">
-        <v>0.039882326649754322</v>
+        <v>0.040158906434992675</v>
       </c>
       <c r="L12">
-        <v>2.2216909630864997e-14</v>
+        <v>2.2217749903986875e-14</v>
       </c>
       <c r="M12">
-        <v>2.2216909630864997e-14</v>
+        <v>2.2217749903986875e-14</v>
       </c>
       <c r="N12">
-        <v>0.0026491538004790572</v>
+        <v>0.0029856276464523658</v>
       </c>
       <c r="O12">
-        <v>2.2216909630864997e-14</v>
+        <v>2.2217749903986875e-14</v>
       </c>
       <c r="P12">
         <v>9</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.0024445487351003651</v>
+        <v>0.0036598589340402321</v>
       </c>
       <c r="C13">
-        <v>0.0010284153927770103</v>
+        <v>0.00090131105510895572</v>
       </c>
       <c r="D13">
-        <v>0.010006735694646442</v>
+        <v>0.0075205617618046396</v>
       </c>
       <c r="E13">
-        <v>2.220509878551456e-14</v>
+        <v>2.2203272774272782e-14</v>
       </c>
       <c r="F13">
-        <v>2.220509878551456e-14</v>
+        <v>2.2203272774272782e-14</v>
       </c>
       <c r="G13">
-        <v>2.220509878551456e-14</v>
+        <v>2.2203272774272782e-14</v>
       </c>
       <c r="H13">
-        <v>2.220509878551456e-14</v>
+        <v>2.2203272774272782e-14</v>
       </c>
       <c r="I13">
-        <v>0.94689454397102391</v>
+        <v>0.94720841461172212</v>
       </c>
       <c r="J13">
-        <v>2.220509878551456e-14</v>
+        <v>2.2203272774272782e-14</v>
       </c>
       <c r="K13">
-        <v>0.039625174798879739</v>
+        <v>0.040708193254191276</v>
       </c>
       <c r="L13">
-        <v>2.220509878551456e-14</v>
+        <v>2.2203272774272782e-14</v>
       </c>
       <c r="M13">
-        <v>2.220509878551456e-14</v>
+        <v>2.2203272774272782e-14</v>
       </c>
       <c r="N13">
-        <v>5.8140739485851754e-07</v>
+        <v>1.6603829550811052e-06</v>
       </c>
       <c r="O13">
-        <v>2.220509878551456e-14</v>
+        <v>2.2203272774272782e-14</v>
       </c>
       <c r="P13">
         <v>8</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.020077481616399918</v>
+        <v>0.0044672670289720735</v>
       </c>
       <c r="C14">
-        <v>0.16912185319140796</v>
+        <v>0.29306464515646447</v>
       </c>
       <c r="D14">
-        <v>0.11565345576103768</v>
+        <v>0.13378644615020588</v>
       </c>
       <c r="E14">
-        <v>2.4720175995112701e-14</v>
+        <v>2.3038987328887135e-14</v>
       </c>
       <c r="F14">
-        <v>2.4720175995112701e-14</v>
+        <v>2.3038987328887135e-14</v>
       </c>
       <c r="G14">
-        <v>2.4720175995112701e-14</v>
+        <v>2.3038987328887135e-14</v>
       </c>
       <c r="H14">
-        <v>2.4720175995112701e-14</v>
+        <v>2.3038987328887135e-14</v>
       </c>
       <c r="I14">
-        <v>2.4720175995112701e-14</v>
+        <v>2.3038987328887135e-14</v>
       </c>
       <c r="J14">
-        <v>0.32223513626946365</v>
+        <v>0.016143395069695341</v>
       </c>
       <c r="K14">
-        <v>0.032770543729050458</v>
+        <v>0.045447513104846918</v>
       </c>
       <c r="L14">
-        <v>0.017906393163366202</v>
+        <v>2.3038987328887135e-14</v>
       </c>
       <c r="M14">
-        <v>2.4720175995112701e-14</v>
+        <v>2.3038987328887135e-14</v>
       </c>
       <c r="N14">
-        <v>0.322235136269101</v>
+        <v>0.50709073348963107</v>
       </c>
       <c r="O14">
-        <v>2.4720175995112701e-14</v>
+        <v>2.3038987328887135e-14</v>
       </c>
       <c r="P14">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.0011928634684677695</v>
+        <v>0.00024645878864775861</v>
       </c>
       <c r="C15">
-        <v>0.001683362684182428</v>
+        <v>0.0036627818498719171</v>
       </c>
       <c r="D15">
-        <v>0.85161070123628202</v>
+        <v>0.84967325823375639</v>
       </c>
       <c r="E15">
-        <v>3.3849322484728392e-14</v>
+        <v>4.1410604664449017e-14</v>
       </c>
       <c r="F15">
-        <v>3.3849322484728392e-14</v>
+        <v>4.1410604664449017e-14</v>
       </c>
       <c r="G15">
-        <v>3.3849322484728367e-14</v>
+        <v>4.1410604664449004e-14</v>
       </c>
       <c r="H15">
-        <v>3.3849322484728354e-14</v>
+        <v>4.1410604664449004e-14</v>
       </c>
       <c r="I15">
-        <v>3.3849322484728354e-14</v>
+        <v>4.1410604664449004e-14</v>
       </c>
       <c r="J15">
-        <v>3.3849322484728392e-14</v>
+        <v>4.1410604664449004e-14</v>
       </c>
       <c r="K15">
-        <v>0.14551301274446332</v>
+        <v>0.14641750014704361</v>
       </c>
       <c r="L15">
-        <v>3.384932248472843e-14</v>
+        <v>4.1410604664448556e-14</v>
       </c>
       <c r="M15">
-        <v>3.384932248472843e-14</v>
+        <v>4.1410604664448556e-14</v>
       </c>
       <c r="N15">
-        <v>5.9866299633548485e-08</v>
+        <v>9.8030744870133586e-10</v>
       </c>
       <c r="O15">
-        <v>3.3849322484728418e-14</v>
+        <v>4.1410604664448556e-14</v>
       </c>
       <c r="P15">
         <v>3</v>
